--- a/pred_ohlcv/54_21/2020-01-25 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 LUNA ohlcv.xlsx
@@ -9622,7 +9622,7 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-78716.94277325</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-73758.60997325</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-93818.47327325</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-93818.47327325</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-90780.48067325</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-80807.43797324999</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-89508.44437324999</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-89508.44437324999</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-87367.63817324999</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-94065.40527324998</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-51003.83297324998</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-31714.40358714999</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-24850.17328714999</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-29684.93488714999</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-29684.93488714999</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-25866.61092309999</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-20811.21182309999</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-8896.673923099992</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-5605.890823099991</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-11086.63802309999</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-14050.05449870999</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-20965.13369870999</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-24323.82139870999</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-17681.99169870999</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-21297.22569870999</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-15231.40309870999</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-9389.403898709987</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-10379.35499870999</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-13482.37419870999</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-11566.95499870999</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-13779.43859870998</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-13779.43859870998</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-9531.758098709985</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-8273.348798709985</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-8273.348798709985</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-11181.55989870999</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-6304.388698709986</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-2707.854398709986</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H754">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H760">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H761">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H763">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H764">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H765">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H766">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H768">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H769">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H770">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H771">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H772">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H773">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H774">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H775">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H780">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-16924.03199870999</v>
       </c>
       <c r="H781">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-16924.03199870999</v>
       </c>
       <c r="H782">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-22095.57359870999</v>
       </c>
       <c r="H783">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-86186.01968704998</v>
       </c>
       <c r="H1209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-81844.27218704998</v>
       </c>
       <c r="H1210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-80174.25008704998</v>
       </c>
       <c r="H1211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 LUNA ohlcv.xlsx
@@ -10324,7 +10324,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-78066.15187325</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-76385.01747325</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-94171.51217325</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-93818.47327325</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-93818.47327325</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-90780.48067325</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-91728.49927325</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-90703.55157324999</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-31714.40358714999</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-27438.43198714999</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-24850.17328714999</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-29684.93488714999</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-29684.93488714999</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-29684.93488714999</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-25866.61092309999</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-20811.21182309999</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-11086.63802309999</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-19348.79899870999</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-15231.40309870999</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-9389.403898709987</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-10379.35499870999</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-13014.52779870999</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-12785.27309870999</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-13779.43859870998</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-13779.43859870998</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-8273.348798709985</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-8273.348798709985</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-11181.55989870999</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-3762.386298709986</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-6950.607398709986</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-3809.772798709986</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-4868.786098709987</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-8377.480398709988</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-12157.91299870999</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-14319.63629870999</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-16924.03199870999</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-16924.03199870999</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-22095.57359870999</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784" spans="1:8">
